--- a/static/download_template/monitoring_data.xlsx
+++ b/static/download_template/monitoring_data.xlsx
@@ -8,9 +8,9 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
-    <sheet name="Level Measurement" sheetId="1" state="visible" r:id="rId2"/>
-    <sheet name="Quality Measurement" sheetId="2" state="visible" r:id="rId3"/>
-    <sheet name="Yield Measurement" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="Groundwater Level" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Groundwater Quality" sheetId="2" state="visible" r:id="rId3"/>
+    <sheet name="Abstraction-Discharge" sheetId="3" state="visible" r:id="rId4"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -39,13 +39,13 @@
     <t xml:space="preserve">Unit</t>
   </si>
   <si>
-    <t xml:space="preserve">Method</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The original ID of the groundwater point.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">The date and time of the measurement or sampling (yyyy-mm-dd hh:MM)</t>
+    <t xml:space="preserve">Methodology</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As recorded in the original database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The date and time of the measurement or sampling (yyyy-mm-dd hh:MM:ss).</t>
   </si>
   <si>
     <t xml:space="preserve">One of the following:
@@ -54,7 +54,7 @@
 • Water level elevation a.m.s.l.</t>
   </si>
   <si>
-    <t xml:space="preserve">Value (number)</t>
+    <t xml:space="preserve">The numeric value of the measurement.</t>
   </si>
   <si>
     <t xml:space="preserve">Unit must be either: 
@@ -65,16 +65,82 @@
     <t xml:space="preserve">Explain the methodology used to collect the data, in the field and eventually in the lab.</t>
   </si>
   <si>
+    <t xml:space="preserve">The date and time of the measurement or sampling (yyyy-mm-dd hh:MM:ss)</t>
+  </si>
+  <si>
     <t xml:space="preserve">One of the following:
-• EC, pH, T, NO3, Cl, Ca, Mg, Na, K, HCO3, SO4, TDS, FC, FS, E Coli, F, As, U, NH4, Fe, Mn, P</t>
+• EC
+• pH
+• T
+• NO3
+• Cl
+• Ca
+• Mg
+• Na
+• K
+• HCO3
+• SO4
+• TDS
+• FC
+• FS
+• E Coli
+• F
+• As
+• U
+• NH4
+• Fe
+• Mn
+• P</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">One of the following:
+• (blank)
+• S/m
+• μS/cm
+• </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">°</t>
+    </r>
+    <r>
+      <rPr>
+        <i val="true"/>
+        <sz val="10"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C
+• °F
+• °K
+• mg/L
+• ppm
+• ng/L
+• μg/L
+• cfu per mL
+• cfu per 100 ml</t>
+    </r>
   </si>
   <si>
     <t xml:space="preserve">One of the following:
-• (blank), S/m, C, F, K, mg/L, ppm, ng/L, μg/L, cfu per mL, cfu per 100 ml.</t>
-  </si>
-  <si>
-    <t xml:space="preserve">One of the following:
-• Yield
+• Abstraction
 • Spring discharge</t>
   </si>
   <si>
@@ -99,6 +165,9 @@
         <charset val="1"/>
       </rPr>
       <t xml:space="preserve">³/s
+• m³/m
+• m³/h
+• m³/d
 </t>
     </r>
     <r>
@@ -110,11 +179,15 @@
         <family val="2"/>
         <charset val="1"/>
       </rPr>
-      <t xml:space="preserve">• ft³/s</t>
+      <t xml:space="preserve">• ft³/s
+• ft³/m
+• ft³/h
+• ft³/d
+• L/s
+• L/m
+• L/h
+• L/d</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">Explain the methodology used to collect the data</t>
   </si>
 </sst>
 </file>
@@ -349,7 +422,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
+      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A1:F2 C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -424,7 +497,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E12" activeCellId="0" sqref="E12"/>
+      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A1:F2 D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -462,16 +535,16 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>11</v>
@@ -499,7 +572,7 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C18" activeCellId="0" sqref="C18"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -537,19 +610,19 @@
         <v>6</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" s="5" t="s">
         <v>9</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>

--- a/static/download_template/monitoring_data.xlsx
+++ b/static/download_template/monitoring_data.xlsx
@@ -343,12 +343,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -414,7 +414,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF953735"/>
     <pageSetUpPr fitToPage="false"/>
@@ -422,15 +422,16 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="1" sqref="A1:F2 C10"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -489,7 +490,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF953735"/>
     <pageSetUpPr fitToPage="false"/>
@@ -497,15 +498,16 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D7" activeCellId="1" sqref="A1:F2 D7"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -564,7 +566,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <tabColor rgb="FF953735"/>
     <pageSetUpPr fitToPage="false"/>
@@ -572,15 +574,16 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1:F2"/>
+      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">

--- a/static/download_template/monitoring_data.xlsx
+++ b/static/download_template/monitoring_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="Groundwater Level" sheetId="1" state="visible" r:id="rId2"/>
@@ -421,8 +421,8 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -480,8 +480,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -556,8 +556,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>
@@ -573,7 +573,7 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -632,8 +632,8 @@
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511811023622047" footer="0.511811023622047"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader/>
     <oddFooter/>

--- a/static/download_template/monitoring_data.xlsx
+++ b/static/download_template/monitoring_data.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Groundwater Level" sheetId="1" state="visible" r:id="rId2"/>
@@ -22,11 +22,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="19">
   <si>
     <t xml:space="preserve">ID</t>
   </si>
   <si>
+    <t xml:space="preserve">Name </t>
+  </si>
+  <si>
     <t xml:space="preserve">Date and Time</t>
   </si>
   <si>
@@ -43,6 +46,9 @@
   </si>
   <si>
     <t xml:space="preserve">As recorded in the original database.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The name of the data point.</t>
   </si>
   <si>
     <t xml:space="preserve">The date and time of the measurement or sampling (yyyy-mm-dd hh:MM:ss).</t>
@@ -421,24 +427,24 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -453,29 +459,33 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AMI2" s="0"/>
+        <v>12</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
@@ -498,23 +508,23 @@
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B1"/>
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -529,29 +539,33 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AMI2" s="0"/>
       <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
@@ -573,24 +587,24 @@
   </sheetPr>
   <dimension ref="A1:AMJ2"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D19" activeCellId="0" sqref="D19"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B1" activeCellId="0" sqref="B:B"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.71484375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="26.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="35.7"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1022" min="4" style="1" width="15.71"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1023" style="0" width="9.14"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="2" style="1" width="26.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="35.7"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1023" min="5" style="1" width="15.71"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1024" min="1024" style="0" width="9.14"/>
   </cols>
   <sheetData>
     <row r="1" s="4" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="3" t="s">
@@ -605,29 +619,33 @@
       <c r="F1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="AMI1" s="0"/>
+      <c r="G1" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="AMJ1" s="0"/>
     </row>
     <row r="2" s="6" customFormat="true" ht="159.95" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="F2" s="5" t="s">
-        <v>11</v>
-      </c>
-      <c r="AMI2" s="0"/>
+        <v>18</v>
+      </c>
+      <c r="G2" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="AMJ2" s="0"/>
     </row>
   </sheetData>
